--- a/translation/xlsx/_tsum_013.xlsx
+++ b/translation/xlsx/_tsum_013.xlsx
@@ -4317,7 +4317,7 @@
     <t xml:space="preserve"> I felt the curse of Oyashiro-sama starting to break.</t>
   </si>
   <si>
-    <t xml:space="preserve">오야시로님의 &lt;i&gt;신벌&lt;/I&gt;이 사라지는 것을. </t>
+    <t xml:space="preserve">오야시로님의 &lt;i&gt;신벌&lt;/i&gt;이 사라지는 것을. </t>
   </si>
   <si>
     <t xml:space="preserve">오야시로님의 저주가 풀려가는 것을. </t>
@@ -6309,7 +6309,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6330,13 +6330,10 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -11042,7 +11039,7 @@
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="6"/>
-      <c r="I225" s="8" t="s">
+      <c r="I225" s="7" t="s">
         <v>972</v>
       </c>
       <c r="J225" s="1" t="s">
@@ -12765,12 +12762,12 @@
       <c r="C315" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D315" s="9" t="s">
+      <c r="D315" s="8" t="s">
         <v>1364</v>
       </c>
       <c r="G315" s="3"/>
       <c r="H315" s="6"/>
-      <c r="I315" s="10" t="s">
+      <c r="I315" s="8" t="s">
         <v>1365</v>
       </c>
       <c r="J315" s="1" t="s">
@@ -13069,7 +13066,7 @@
       <c r="C331" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="D331" s="5" t="s">
+      <c r="D331" s="9" t="s">
         <v>1433</v>
       </c>
       <c r="G331" s="3"/>
@@ -14656,7 +14653,7 @@
         <v>1766</v>
       </c>
       <c r="G411" s="3"/>
-      <c r="H411" s="11"/>
+      <c r="H411" s="10"/>
       <c r="I411" s="5" t="s">
         <v>1766</v>
       </c>
@@ -16316,7 +16313,7 @@
     <row r="539" ht="15.75" customHeight="1">
       <c r="B539" s="2"/>
       <c r="G539" s="3"/>
-      <c r="H539" s="11"/>
+      <c r="H539" s="10"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="B540" s="2"/>
@@ -16946,7 +16943,7 @@
     <row r="665" ht="15.75" customHeight="1">
       <c r="B665" s="2"/>
       <c r="G665" s="3"/>
-      <c r="H665" s="11"/>
+      <c r="H665" s="10"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="B666" s="2"/>
